--- a/results/TraceBert.xlsx
+++ b/results/TraceBert.xlsx
@@ -71,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,16 +131,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,211 +171,211 @@
   </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="0" t="n">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="0" t="n">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="n">
         <v>707</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="0" t="n">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="n">
         <v>7611</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="0" t="n">
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="n">
         <v>1473</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="0" t="n">
+      <c r="N1" s="2"/>
+      <c r="O1" s="1" t="n">
         <v>8268</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.36</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <f aca="false">AVERAGE(B4,E4,H4,K4,N4)</f>
-        <v>0.266</v>
-      </c>
-      <c r="R4" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <f aca="false">AVERAGE(C4,F4,I4,L4,O4)</f>
-        <v>0.42</v>
-      </c>
-      <c r="S4" s="3" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <f aca="false">AVERAGE(D4,G4,J4,M4,P4)</f>
         <v>0.276</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <f aca="false">(B4*$C1+E4*$F1+H4*$I1+K4*$L1+N4*$O1)/(SUM($C1,$F1,$I1,$L1,$O1))</f>
-        <v>0.332827323430338</v>
-      </c>
-      <c r="U4" s="3" t="n">
+        <v>0.278189850350654</v>
+      </c>
+      <c r="U4" s="4" t="n">
         <f aca="false">(C4*$C1+F4*$F1+I4*$I1+L4*$L1+O4*$O1)/(SUM($C1,$F1,$I1,$L1,$O1))</f>
-        <v>0.479219724998619</v>
-      </c>
-      <c r="V4" s="3" t="n">
+        <v>0.533857198078304</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <f aca="false">(D4*$C1+G4*$F1+J4*$I1+M4*$L1+P4*$O1)/(SUM($C1,$F1,$I1,$L1,$O1))</f>
         <v>0.353226572422552</v>
       </c>
